--- a/backend/endpoints.xlsx
+++ b/backend/endpoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaniko\Desktop\Development\social_media_fullstack\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6531807F-908C-4811-B3BE-83FD6F24632A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095B0999-42CB-4660-BA89-037E262C7D44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{958ADDC2-778D-4DB7-816C-A00872D2D74A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Sign Up</t>
   </si>
@@ -69,7 +69,10 @@
     <t>delete post</t>
   </si>
   <si>
-    <t>/api/posts/del/:postId</t>
+    <t>/api/posts/:postId</t>
+  </si>
+  <si>
+    <t>DELETE</t>
   </si>
 </sst>
 </file>
@@ -423,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F71EE3-F25A-4275-AC9F-0B1BAE0D22DE}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +496,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
